--- a/Foreigners_SP1-TS_01.xlsx
+++ b/Foreigners_SP1-TS_01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gimsh\Desktop\project\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gimsh\Documents\GitHub\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30073132-AA48-4CD2-8389-B97F4384DE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE070D39-62F2-43C9-A6D6-B7BDC3365DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04489792-82E3-433F-9AD6-4967F1D564A1}"/>
   </bookViews>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C253DDF-A7F7-4E67-BDDD-429EFBDA29CF}">
   <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1260,7 +1260,7 @@
         <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">

--- a/Foreigners_SP1-TS_01.xlsx
+++ b/Foreigners_SP1-TS_01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gimsh\Documents\GitHub\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gimsh\Desktop\project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE070D39-62F2-43C9-A6D6-B7BDC3365DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30073132-AA48-4CD2-8389-B97F4384DE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04489792-82E3-433F-9AD6-4967F1D564A1}"/>
   </bookViews>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C253DDF-A7F7-4E67-BDDD-429EFBDA29CF}">
   <dimension ref="B2:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1260,7 +1260,7 @@
         <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
